--- a/results/MVSE/aminer/MVSE_aminer<l03><WL>84.83.xlsx
+++ b/results/MVSE/aminer/MVSE_aminer<l03><WL>84.83.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,6 +582,136 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>128</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>WL_0.025_0.025_0.95</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N3" t="n">
+        <v>84.83</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-01_05_40', 'cl_mode': 'WL_0.025_0.025_0.95', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>128</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>WL_0.05_0.05_0.9</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N4" t="n">
+        <v>84.83</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-01_44_00', 'cl_mode': 'WL_0.05_0.05_0.9', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
